--- a/Week4/adm2021.xlsx
+++ b/Week4/adm2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B7E4E7-666E-E44A-83D2-AC28867F165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4E6433-5678-0C48-B1A8-DF3153E7923A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22240" yWindow="1260" windowWidth="44420" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18580" yWindow="1140" windowWidth="40480" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -1738,7 +1738,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1849,7 +1849,7 @@
         <v xml:space="preserve">ADMCON1 = CASE WHEN ADMCON1 = '' THEN '-1' ELSE ADMCON1 END, </v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K11" si="1">_xlfn.CONCAT("CHANGE COLUMN ", B3, " ", C3,  " TINYINT COMMENT '", H3, "',")</f>
+        <f>_xlfn.CONCAT("CHANGE COLUMN ", B3, " ", C3,  " TINYINT COMMENT '", H3, "',")</f>
         <v>CHANGE COLUMN ADMCON1 secondary_school_gpa TINYINT COMMENT 'Secondary school GPA',</v>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
         <v xml:space="preserve">ADMCON2 = CASE WHEN ADMCON2 = '' THEN '-1' ELSE ADMCON2 END, </v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K4:K11" si="1">_xlfn.CONCAT("CHANGE COLUMN ", B4, " ", C4,  " TINYINT COMMENT '", H4, "',")</f>
         <v>CHANGE COLUMN ADMCON2 secondary_school_rank TINYINT COMMENT 'Secondary school rank',</v>
       </c>
     </row>
